--- a/Manifest-Email-CCI.xlsx
+++ b/Manifest-Email-CCI.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B5" s="24" t="inlineStr">
         <is>
-          <t>From 03-28-2022 to 03-30-2022</t>
+          <t>From 03-20-2022 to 03-16-2022</t>
         </is>
       </c>
       <c r="C5" s="16" t="n"/>
@@ -671,14 +671,12 @@
     <row r="11" ht="88.34999999999999" customHeight="1" s="17">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>777
-888</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>yu 2
-yu 3</t>
+          <t>345</t>
         </is>
       </c>
       <c r="C11" s="29" t="n"/>
